--- a/2-data-coding/r3a-data-extraction.xlsx
+++ b/2-data-coding/r3a-data-extraction.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juf\Workspace\BTH\Data Processing\gere-r3a\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juf\Workspace\BTH\Data Processing\gere-r3a\2-data-coding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A4E20F-4B00-4214-AB82-5BD78041A4CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661E3BE1-42C8-461F-9A2A-A66AB112DA40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-14805" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3335,10 +3335,10 @@
   <dimension ref="A1:L473"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B411" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B243" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D455" sqref="D455"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3349,7 +3349,7 @@
     <col min="4" max="4" width="37.6640625" customWidth="1"/>
     <col min="5" max="5" width="25.109375" customWidth="1"/>
     <col min="6" max="6" width="37.6640625" customWidth="1"/>
-    <col min="7" max="7" width="6.33203125" customWidth="1"/>
+    <col min="7" max="7" width="6.77734375" customWidth="1"/>
     <col min="8" max="10" width="25.109375" customWidth="1"/>
     <col min="11" max="11" width="37.6640625" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="50.109375" customWidth="1"/>
